--- a/biology/Écologie/Marney_le_Renard/Marney_le_Renard.xlsx
+++ b/biology/Écologie/Marney_le_Renard/Marney_le_Renard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marney - le Renard (Marney - the Fox) est le héros d'une série de bande dessinée anglaise, créée par Scott Goodall et dessinée par John Stokes, pour l'hebdomadaire Buster de 1974 à 1976. Il a été réédité en 2017 en anglais chez Rebellion et en 2021 en français chez Komics Initiative.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marney est un renardeau de la campagne anglaise qui perd sa mère, abattue par des chasseurs. Il se heurte à la cruauté des humains et de certains animaux.
 </t>
@@ -543,11 +557,13 @@
           <t>Edition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus d'une dizaine d'épisodes ont été publiés dans les années 1970 et 1980[1],[2]. Les dessins sont tous en noir et blanc[3].
-Un éditeur britannique réédite l'intégrale des histoires en 2017, un an après la mort de Goodal[4].
-L'édition française est saluée, notamment pour sa sensibilité écologique[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus d'une dizaine d'épisodes ont été publiés dans les années 1970 et 1980,. Les dessins sont tous en noir et blanc.
+Un éditeur britannique réédite l'intégrale des histoires en 2017, un an après la mort de Goodal.
+L'édition française est saluée, notamment pour sa sensibilité écologique.
 </t>
         </is>
       </c>
